--- a/Excel-projects/Excel Charts Tutorial File.xlsx
+++ b/Excel-projects/Excel Charts Tutorial File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/579481080490e445/Documents/Excel Series Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\Excel\Excel-projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA04C7DD-8BCF-4FE5-B548-55CBD210AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1637B6-4196-45CD-B01E-B4960AE56916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{03CEABDE-3C67-4836-9FDD-609F2D7E7F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="3" r:id="rId1"/>
@@ -477,13 +477,13 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -501,7 +501,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -587,7 +587,7 @@
         <v>5071</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -632,7 +632,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -677,7 +677,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -722,7 +722,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -767,7 +767,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -812,7 +812,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -857,7 +857,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -931,7 +931,7 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
